--- a/medicine/Sexualité et sexologie/Zouzou_(film,_2014)/Zouzou_(film,_2014).xlsx
+++ b/medicine/Sexualité et sexologie/Zouzou_(film,_2014)/Zouzou_(film,_2014).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zouzou est une comédie française, réalisée par Blandine Lenoir, sortie en 2014.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors d'un séjour dans leur maison de campagne, Solange (Jeanne Ferron), une sexagénaire annonce à ses trois filles et sa petite-fille Zouzou (Anouk Delbart) qu'elle a un homme dans sa vie.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre : Zouzou
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Olivier Broche : Jean-Claude Rabette
 Laure Calamy : Lucie
@@ -627,7 +645,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Zouzou a été filmé à Aubeterre-sur-Dronne, en Charente.[réf. nécessaire]
 </t>
@@ -658,7 +678,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film se revendique clairement féministe, tant dans les dialogues que dans les livres que les personnages lisent dans le film (dont L'Ennemi principal de Christine Delphy). Le générique mentionne plusieurs personnalités ou mouvements féministes dans ses remerciements : Christine Delphy, Suzy Rotjman (porte-parole du Collectif national pour les droits des femmes) ou encore le groupe La Barbe.
 </t>
